--- a/Documentation/Описание битовых масок СЭС v1.0.xlsx
+++ b/Documentation/Описание битовых масок СЭС v1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="512">
   <si>
     <t>AB1 Charge branch 1 Error</t>
   </si>
@@ -1423,6 +1423,135 @@
   </si>
   <si>
     <t xml:space="preserve">PBM3  branch 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус солнечных панелей [0],  битовая маска </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус солнечных панелей [1],  битовая маска </t>
+  </si>
+  <si>
+    <t>PAM SP4 (X+) State ID[0] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP4 (X+) State ID[1] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP5 (Y+) State ID[0] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP5 (Y+) State ID[1] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP4 (X+) State ID[5] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP4 (X+) State ID[2] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP4 (X+) State ID[3] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP4 (X+) State ID[4] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус солнечных панелей [2],  битовая маска </t>
+  </si>
+  <si>
+    <t>PAM SP4 (X+) Error_I2C_GPIO_Ext1 (1-Error)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус солнечных панелей [3],  битовая маска </t>
+  </si>
+  <si>
+    <t>PAM SP5 (Y+) Error_I2C_GPIO_Ext1 (1-Error)</t>
+  </si>
+  <si>
+    <t>PAM SP6 (Y-) State ID[0] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP6 (Y-) State ID[1] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP6 (Y-) State ID[2] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP6 (Y-) Error_I2C_GPIO_Ext1 (1-Error)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус солнечных панелей [4],  битовая маска </t>
+  </si>
+  <si>
+    <t>PAM SP2 (X-) State ID[0] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP2 (X-) State ID[1] ( MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP2 (X-) State ID[2] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP2 (X-) State ID[3] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP2 (X-) State ID[4] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP2 (X-) State ID[5] (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM SP2 (X-) Error_I2C_GPIO_Ext1 (1-Error)</t>
+  </si>
+  <si>
+    <t>PAM PWR IN Ch2 State ID  (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM PWR IN Ch2 Error Power_Mon (1-Error)</t>
+  </si>
+  <si>
+    <t>PAM PWR TM SP Ch2 PG (1-Error)</t>
+  </si>
+  <si>
+    <t>PAM PWR IN Ch4 State ID  (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM PWR IN Ch4 Error Power_Mon (1-Error)</t>
+  </si>
+  <si>
+    <t>PAM PWR TM SP Ch4 PG (1-Error)</t>
+  </si>
+  <si>
+    <t>PAM PWR IN Ch1 State ID  (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM PWR IN Ch1 Error Power_Mon (1-Error)</t>
+  </si>
+  <si>
+    <t>PAM PWR TM SP Ch1 PG (1-Error)</t>
+  </si>
+  <si>
+    <t>PAM PWR IN Ch3 State ID  (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM PWR IN Ch3 Error Power_Mon (1-Error)</t>
+  </si>
+  <si>
+    <t>PAM PWR TM SP Ch6 PG (1-Error)</t>
+  </si>
+  <si>
+    <t>PAM PWR IN Ch5 State ID  (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM PWR IN Ch5 Error Power_Mon (1-Error)</t>
+  </si>
+  <si>
+    <t>PAM PWR IN Ch6 State ID  (MOSFET 0-open, 1-close)</t>
+  </si>
+  <si>
+    <t>PAM PWR IN Ch6 Error Power_Mon (1-Error)</t>
+  </si>
+  <si>
+    <t>PAM PWR TM SP Ch3 PG (1-Error)</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +2027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1979,6 +2108,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1987,105 +2218,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2389,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:U106"/>
+  <dimension ref="B5:U132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L136" sqref="L136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2416,42 +2548,42 @@
   <sheetData>
     <row r="5" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="30"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="64"/>
     </row>
     <row r="7" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="32"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="1">
         <v>15</v>
       </c>
@@ -2547,7 +2679,7 @@
       <c r="P8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="45" t="s">
+      <c r="Q8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="R8" s="12" t="s">
@@ -2586,28 +2718,28 @@
       <c r="U9" s="15"/>
     </row>
     <row r="10" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -2618,10 +2750,10 @@
       <c r="U10" s="15"/>
     </row>
     <row r="11" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="32"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="16">
         <v>7</v>
       </c>
@@ -2794,18 +2926,18 @@
       <c r="U14" s="15"/>
     </row>
     <row r="15" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
@@ -2816,18 +2948,18 @@
       <c r="U15" s="15"/>
     </row>
     <row r="16" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
@@ -2839,42 +2971,42 @@
     </row>
     <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
     </row>
     <row r="19" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="32"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="38"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="25">
         <v>7</v>
       </c>
@@ -2911,8 +3043,8 @@
         <v>340</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="13" t="s">
         <v>468</v>
       </c>
@@ -2933,70 +3065,70 @@
       </c>
     </row>
     <row r="21" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" spans="2:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
     </row>
     <row r="23" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
     </row>
     <row r="24" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="32"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="38"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="25">
         <v>7</v>
       </c>
@@ -3033,25 +3165,25 @@
         <v>127</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="31" t="s">
         <v>36</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="45" t="s">
+      <c r="K25" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="45" t="s">
+      <c r="L25" s="31" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="13" t="s">
@@ -3078,16 +3210,16 @@
       <c r="H26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="31" t="s">
         <v>41</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="45" t="s">
+      <c r="K26" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="45" t="s">
+      <c r="L26" s="31" t="s">
         <v>52</v>
       </c>
       <c r="M26" s="13" t="s">
@@ -3105,10 +3237,10 @@
         <v>129</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="31" t="s">
         <v>47</v>
       </c>
       <c r="H27" s="12" t="s">
@@ -3123,7 +3255,7 @@
       <c r="K27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L27" s="45"/>
+      <c r="L27" s="31"/>
       <c r="M27" s="13" t="s">
         <v>58</v>
       </c>
@@ -3139,55 +3271,55 @@
         <v>130</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="48"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="59"/>
     </row>
     <row r="30" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
     </row>
     <row r="32" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="32"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="38"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="25">
         <v>7</v>
       </c>
@@ -3224,25 +3356,25 @@
         <v>201</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="31" t="s">
         <v>66</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="45" t="s">
+      <c r="K33" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="L33" s="45" t="s">
+      <c r="L33" s="31" t="s">
         <v>61</v>
       </c>
       <c r="M33" s="13" t="s">
@@ -3269,16 +3401,16 @@
       <c r="H34" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="31" t="s">
         <v>72</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="45" t="s">
+      <c r="K34" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L34" s="45" t="s">
+      <c r="L34" s="31" t="s">
         <v>69</v>
       </c>
       <c r="M34" s="13" t="s">
@@ -3296,10 +3428,10 @@
         <v>203</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="31" t="s">
         <v>82</v>
       </c>
       <c r="H35" s="12" t="s">
@@ -3314,7 +3446,7 @@
       <c r="K35" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="45" t="s">
+      <c r="L35" s="31" t="s">
         <v>77</v>
       </c>
       <c r="M35" s="13" t="s">
@@ -3332,19 +3464,19 @@
         <v>204</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="52"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="60"/>
       <c r="J36" s="12" t="s">
         <v>87</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L36" s="45" t="s">
+      <c r="L36" s="31" t="s">
         <v>85</v>
       </c>
       <c r="M36" s="13" t="s">
@@ -3362,16 +3494,16 @@
         <v>205</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="48"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="59"/>
     </row>
     <row r="38" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
@@ -3384,10 +3516,10 @@
         <v>206</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="31" t="s">
         <v>98</v>
       </c>
       <c r="H38" s="12" t="s">
@@ -3402,7 +3534,7 @@
       <c r="K38" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="L38" s="45" t="s">
+      <c r="L38" s="31" t="s">
         <v>93</v>
       </c>
       <c r="M38" s="13" t="s">
@@ -3420,10 +3552,10 @@
         <v>207</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="G39" s="31" t="s">
         <v>107</v>
       </c>
       <c r="H39" s="12" t="s">
@@ -3438,7 +3570,7 @@
       <c r="K39" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="L39" s="45" t="s">
+      <c r="L39" s="31" t="s">
         <v>102</v>
       </c>
       <c r="M39" s="13" t="s">
@@ -3456,10 +3588,10 @@
         <v>208</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="45" t="s">
+      <c r="G40" s="31" t="s">
         <v>116</v>
       </c>
       <c r="H40" s="12" t="s">
@@ -3474,7 +3606,7 @@
       <c r="K40" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="45" t="s">
+      <c r="L40" s="31" t="s">
         <v>111</v>
       </c>
       <c r="M40" s="13" t="s">
@@ -3492,8 +3624,8 @@
         <v>209</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12" t="s">
         <v>123</v>
@@ -3504,7 +3636,7 @@
       <c r="K41" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L41" s="45" t="s">
+      <c r="L41" s="31" t="s">
         <v>120</v>
       </c>
       <c r="M41" s="13" t="s">
@@ -3522,16 +3654,16 @@
         <v>210</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="48"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="59"/>
     </row>
     <row r="43" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="6" t="s">
@@ -3544,8 +3676,8 @@
         <v>211</v>
       </c>
       <c r="E43" s="7"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45" t="s">
+      <c r="F43" s="31"/>
+      <c r="G43" s="31" t="s">
         <v>133</v>
       </c>
       <c r="H43" s="12" t="s">
@@ -3560,7 +3692,7 @@
       <c r="K43" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L43" s="45" t="s">
+      <c r="L43" s="31" t="s">
         <v>128</v>
       </c>
       <c r="M43" s="13" t="s">
@@ -3578,23 +3710,23 @@
         <v>212</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45" t="s">
+      <c r="F44" s="31"/>
+      <c r="G44" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="H44" s="45" t="s">
+      <c r="H44" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="I44" s="45" t="s">
+      <c r="I44" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="J44" s="45" t="s">
+      <c r="J44" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="K44" s="45" t="s">
+      <c r="K44" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="L44" s="45" t="s">
+      <c r="L44" s="31" t="s">
         <v>136</v>
       </c>
       <c r="M44" s="13" t="s">
@@ -3612,23 +3744,23 @@
         <v>213</v>
       </c>
       <c r="E45" s="7"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45" t="s">
+      <c r="F45" s="31"/>
+      <c r="G45" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H45" s="45" t="s">
+      <c r="H45" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="I45" s="45" t="s">
+      <c r="I45" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="J45" s="45" t="s">
+      <c r="J45" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="K45" s="45" t="s">
+      <c r="K45" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="L45" s="45" t="s">
+      <c r="L45" s="31" t="s">
         <v>146</v>
       </c>
       <c r="M45" s="13" t="s">
@@ -3646,23 +3778,23 @@
         <v>214</v>
       </c>
       <c r="E46" s="7"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45" t="s">
+      <c r="F46" s="31"/>
+      <c r="G46" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="H46" s="45" t="s">
+      <c r="H46" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="J46" s="45" t="s">
+      <c r="J46" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K46" s="45" t="s">
+      <c r="K46" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="L46" s="45" t="s">
+      <c r="L46" s="31" t="s">
         <v>144</v>
       </c>
       <c r="M46" s="13" t="s">
@@ -3680,23 +3812,23 @@
         <v>215</v>
       </c>
       <c r="E47" s="7"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45" t="s">
+      <c r="F47" s="31"/>
+      <c r="G47" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="H47" s="45" t="s">
+      <c r="H47" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="I47" s="45" t="s">
+      <c r="I47" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="J47" s="45" t="s">
+      <c r="J47" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="K47" s="45" t="s">
+      <c r="K47" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="L47" s="45" t="s">
+      <c r="L47" s="31" t="s">
         <v>161</v>
       </c>
       <c r="M47" s="13" t="s">
@@ -3714,23 +3846,23 @@
         <v>216</v>
       </c>
       <c r="E48" s="7"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45" t="s">
+      <c r="F48" s="31"/>
+      <c r="G48" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="H48" s="45" t="s">
+      <c r="H48" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="45" t="s">
+      <c r="I48" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="J48" s="45" t="s">
+      <c r="J48" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="K48" s="45" t="s">
+      <c r="K48" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="L48" s="45" t="s">
+      <c r="L48" s="31" t="s">
         <v>168</v>
       </c>
       <c r="M48" s="13" t="s">
@@ -3748,23 +3880,23 @@
         <v>217</v>
       </c>
       <c r="E49" s="7"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45" t="s">
+      <c r="F49" s="31"/>
+      <c r="G49" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="H49" s="45" t="s">
+      <c r="H49" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="I49" s="45" t="s">
+      <c r="I49" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="J49" s="45" t="s">
+      <c r="J49" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="K49" s="45" t="s">
+      <c r="K49" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="L49" s="45" t="s">
+      <c r="L49" s="31" t="s">
         <v>176</v>
       </c>
       <c r="M49" s="13" t="s">
@@ -3782,16 +3914,16 @@
         <v>218</v>
       </c>
       <c r="E50" s="7"/>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="48"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="59"/>
     </row>
     <row r="51" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="6" t="s">
@@ -3804,16 +3936,16 @@
         <v>219</v>
       </c>
       <c r="E51" s="7"/>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="48"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="59"/>
     </row>
     <row r="52" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="6" t="s">
@@ -3862,16 +3994,16 @@
         <v>221</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="F53" s="46" t="s">
+      <c r="F53" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="48"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="59"/>
     </row>
     <row r="54" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="6" t="s">
@@ -3884,16 +4016,16 @@
         <v>222</v>
       </c>
       <c r="E54" s="7"/>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="48"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="59"/>
     </row>
     <row r="55" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="6" t="s">
@@ -3942,16 +4074,16 @@
         <v>224</v>
       </c>
       <c r="E56" s="7"/>
-      <c r="F56" s="46" t="s">
+      <c r="F56" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="48"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="59"/>
     </row>
     <row r="57" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="6" t="s">
@@ -3964,16 +4096,16 @@
         <v>225</v>
       </c>
       <c r="E57" s="7"/>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="48"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="59"/>
     </row>
     <row r="58" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="6" t="s">
@@ -4130,16 +4262,16 @@
         <v>230</v>
       </c>
       <c r="E62" s="7"/>
-      <c r="F62" s="46" t="s">
+      <c r="F62" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="48"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="59"/>
     </row>
     <row r="63" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="6" t="s">
@@ -4152,16 +4284,16 @@
         <v>231</v>
       </c>
       <c r="E63" s="7"/>
-      <c r="F63" s="46" t="s">
+      <c r="F63" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="48"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="59"/>
     </row>
     <row r="64" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="6" t="s">
@@ -4210,16 +4342,16 @@
         <v>233</v>
       </c>
       <c r="E65" s="7"/>
-      <c r="F65" s="46" t="s">
+      <c r="F65" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="48"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="59"/>
     </row>
     <row r="66" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="6" t="s">
@@ -4232,16 +4364,16 @@
         <v>234</v>
       </c>
       <c r="E66" s="7"/>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="48"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="59"/>
     </row>
     <row r="67" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="6" t="s">
@@ -4398,16 +4530,16 @@
         <v>239</v>
       </c>
       <c r="E71" s="7"/>
-      <c r="F71" s="46" t="s">
+      <c r="F71" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="48"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="58"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="59"/>
     </row>
     <row r="72" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="6" t="s">
@@ -4420,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="E72" s="7"/>
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="48"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="59"/>
     </row>
     <row r="73" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="6" t="s">
@@ -4478,16 +4610,16 @@
         <v>242</v>
       </c>
       <c r="E74" s="7"/>
-      <c r="F74" s="46" t="s">
+      <c r="F74" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="48"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="58"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="59"/>
     </row>
     <row r="75" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="6" t="s">
@@ -4500,16 +4632,16 @@
         <v>243</v>
       </c>
       <c r="E75" s="7"/>
-      <c r="F75" s="46" t="s">
+      <c r="F75" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="48"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="59"/>
     </row>
     <row r="76" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="6" t="s">
@@ -4666,9 +4798,9 @@
         <v>248</v>
       </c>
       <c r="E80" s="7"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
       <c r="I80" s="13" t="s">
         <v>335</v>
       </c>
@@ -4696,19 +4828,19 @@
         <v>249</v>
       </c>
       <c r="E81" s="7"/>
-      <c r="F81" s="57" t="s">
+      <c r="F81" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="G81" s="57" t="s">
+      <c r="G81" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="H81" s="57" t="s">
+      <c r="H81" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="I81" s="57" t="s">
+      <c r="I81" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="J81" s="57" t="s">
+      <c r="J81" s="39" t="s">
         <v>340</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -4732,10 +4864,10 @@
         <v>250</v>
       </c>
       <c r="E82" s="7"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="58"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="40"/>
       <c r="J82" s="7" t="s">
         <v>349</v>
       </c>
@@ -4753,13 +4885,13 @@
       </c>
     </row>
     <row r="83" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C83" s="54">
-        <v>8</v>
-      </c>
-      <c r="D83" s="55">
+      <c r="C83" s="36">
+        <v>8</v>
+      </c>
+      <c r="D83" s="37">
         <v>251</v>
       </c>
       <c r="E83" s="7"/>
@@ -4849,7 +4981,7 @@
       </c>
     </row>
     <row r="86" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="56" t="s">
+      <c r="B86" s="38" t="s">
         <v>378</v>
       </c>
       <c r="C86" s="25">
@@ -4859,16 +4991,16 @@
         <v>254</v>
       </c>
       <c r="E86" s="7"/>
-      <c r="F86" s="46" t="s">
+      <c r="F86" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="47"/>
-      <c r="L86" s="47"/>
-      <c r="M86" s="48"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="58"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="58"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="59"/>
     </row>
     <row r="87" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B87" s="6" t="s">
@@ -5064,42 +5196,42 @@
     </row>
     <row r="94" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="95" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="35" t="s">
+      <c r="D95" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="37" t="s">
+      <c r="E95" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="39" t="s">
+      <c r="F95" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="40"/>
-      <c r="K95" s="40"/>
-      <c r="L95" s="40"/>
-      <c r="M95" s="44"/>
-      <c r="N95" s="43"/>
-      <c r="O95" s="43"/>
-      <c r="P95" s="43"/>
-      <c r="Q95" s="43"/>
-      <c r="R95" s="43"/>
-      <c r="S95" s="43"/>
-      <c r="T95" s="43"/>
-      <c r="U95" s="43"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="55"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="55"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
     </row>
     <row r="96" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="32"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="38"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="53"/>
       <c r="F96" s="25">
         <v>7</v>
       </c>
@@ -5125,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="6" t="s">
         <v>416</v>
       </c>
@@ -5157,7 +5289,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="98" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="6" t="s">
         <v>417</v>
       </c>
@@ -5189,7 +5321,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="99" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="6" t="s">
         <v>430</v>
       </c>
@@ -5221,7 +5353,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="100" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="6" t="s">
         <v>431</v>
       </c>
@@ -5253,7 +5385,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="101" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="6" t="s">
         <v>444</v>
       </c>
@@ -5285,7 +5417,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="102" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B102" s="6" t="s">
         <v>445</v>
       </c>
@@ -5317,7 +5449,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="103" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="6" t="s">
         <v>458</v>
       </c>
@@ -5328,18 +5460,18 @@
         <v>336</v>
       </c>
       <c r="E103" s="7"/>
-      <c r="F103" s="46" t="s">
+      <c r="F103" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="G103" s="47"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
-      <c r="J103" s="47"/>
-      <c r="K103" s="47"/>
-      <c r="L103" s="47"/>
-      <c r="M103" s="48"/>
-    </row>
-    <row r="104" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="59"/>
+    </row>
+    <row r="104" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="6" t="s">
         <v>459</v>
       </c>
@@ -5350,18 +5482,18 @@
         <v>337</v>
       </c>
       <c r="E104" s="7"/>
-      <c r="F104" s="46" t="s">
+      <c r="F104" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="G104" s="47"/>
-      <c r="H104" s="47"/>
-      <c r="I104" s="47"/>
-      <c r="J104" s="47"/>
-      <c r="K104" s="47"/>
-      <c r="L104" s="47"/>
-      <c r="M104" s="48"/>
-    </row>
-    <row r="105" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="59"/>
+    </row>
+    <row r="105" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="6" t="s">
         <v>460</v>
       </c>
@@ -5372,18 +5504,18 @@
         <v>338</v>
       </c>
       <c r="E105" s="7"/>
-      <c r="F105" s="46" t="s">
+      <c r="F105" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="G105" s="47"/>
-      <c r="H105" s="47"/>
-      <c r="I105" s="47"/>
-      <c r="J105" s="47"/>
-      <c r="K105" s="47"/>
-      <c r="L105" s="47"/>
-      <c r="M105" s="48"/>
-    </row>
-    <row r="106" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G105" s="58"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="58"/>
+      <c r="J105" s="58"/>
+      <c r="K105" s="58"/>
+      <c r="L105" s="58"/>
+      <c r="M105" s="59"/>
+    </row>
+    <row r="106" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B106" s="6" t="s">
         <v>461</v>
       </c>
@@ -5394,24 +5526,332 @@
         <v>339</v>
       </c>
       <c r="E106" s="7"/>
-      <c r="F106" s="46" t="s">
+      <c r="F106" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="G106" s="47"/>
-      <c r="H106" s="47"/>
-      <c r="I106" s="47"/>
-      <c r="J106" s="47"/>
-      <c r="K106" s="47"/>
-      <c r="L106" s="47"/>
-      <c r="M106" s="48"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="58"/>
+      <c r="J106" s="58"/>
+      <c r="K106" s="58"/>
+      <c r="L106" s="58"/>
+      <c r="M106" s="59"/>
+    </row>
+    <row r="111" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" s="55"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="55"/>
+      <c r="J112" s="55"/>
+      <c r="K112" s="55"/>
+      <c r="L112" s="55"/>
+      <c r="M112" s="56"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="29"/>
+      <c r="Q112" s="29"/>
+      <c r="R112" s="29"/>
+      <c r="S112" s="29"/>
+      <c r="T112" s="29"/>
+      <c r="U112" s="29"/>
+    </row>
+    <row r="113" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="47"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="53"/>
+      <c r="F113" s="25">
+        <v>7</v>
+      </c>
+      <c r="G113" s="26">
+        <v>6</v>
+      </c>
+      <c r="H113" s="26">
+        <v>5</v>
+      </c>
+      <c r="I113" s="27">
+        <v>4</v>
+      </c>
+      <c r="J113" s="30">
+        <v>3</v>
+      </c>
+      <c r="K113" s="26">
+        <v>2</v>
+      </c>
+      <c r="L113" s="26">
+        <v>1</v>
+      </c>
+      <c r="M113" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C114" s="25">
+        <v>8</v>
+      </c>
+      <c r="D114" s="26">
+        <v>59</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="K114" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="L114" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="M114" s="13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C115" s="25">
+        <v>8</v>
+      </c>
+      <c r="D115" s="26">
+        <v>60</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="J115" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="K115" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="L115" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="M115" s="13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C116" s="25">
+        <v>8</v>
+      </c>
+      <c r="D116" s="26">
+        <v>61</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="J116" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="K116" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="L116" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="M116" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C117" s="25">
+        <v>8</v>
+      </c>
+      <c r="D117" s="26">
+        <v>62</v>
+      </c>
+      <c r="E117" s="7"/>
+      <c r="F117" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="I117" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="J117" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="K117" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="L117" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="M117" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C118" s="25">
+        <v>8</v>
+      </c>
+      <c r="D118" s="26">
+        <v>62</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="G118" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="J118" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="K118" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="L118" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="M118" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="128" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+    </row>
+    <row r="129" spans="6:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+    </row>
+    <row r="130" spans="6:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+    </row>
+    <row r="131" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="132" spans="6:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:M18"/>
+  <mergeCells count="58">
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:M112"/>
+    <mergeCell ref="F6:U6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F50:M50"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="F54:M54"/>
+    <mergeCell ref="F56:M56"/>
+    <mergeCell ref="F57:M57"/>
+    <mergeCell ref="F62:M62"/>
+    <mergeCell ref="F63:M63"/>
+    <mergeCell ref="F65:M65"/>
+    <mergeCell ref="F66:M66"/>
+    <mergeCell ref="F71:M71"/>
+    <mergeCell ref="F72:M72"/>
+    <mergeCell ref="F74:M74"/>
+    <mergeCell ref="F75:M75"/>
+    <mergeCell ref="F86:M86"/>
     <mergeCell ref="F103:M103"/>
     <mergeCell ref="F104:M104"/>
     <mergeCell ref="F105:M105"/>
@@ -5421,45 +5861,11 @@
     <mergeCell ref="D95:D96"/>
     <mergeCell ref="E95:E96"/>
     <mergeCell ref="F95:M95"/>
-    <mergeCell ref="F71:M71"/>
-    <mergeCell ref="F72:M72"/>
-    <mergeCell ref="F74:M74"/>
-    <mergeCell ref="F75:M75"/>
-    <mergeCell ref="F86:M86"/>
-    <mergeCell ref="F57:M57"/>
-    <mergeCell ref="F62:M62"/>
-    <mergeCell ref="F63:M63"/>
-    <mergeCell ref="F65:M65"/>
-    <mergeCell ref="F66:M66"/>
-    <mergeCell ref="F50:M50"/>
-    <mergeCell ref="F51:M51"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="F54:M54"/>
-    <mergeCell ref="F56:M56"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F6:U6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Documentation/Описание битовых масок СЭС v1.0.xlsx
+++ b/Documentation/Описание битовых масок СЭС v1.0.xlsx
@@ -168,12 +168,6 @@
     <t>SP Y-  has Error (1=Error)</t>
   </si>
   <si>
-    <t>SP X+  has Error (1=Error)</t>
-  </si>
-  <si>
-    <t>SP X-  has Error (1=Error)</t>
-  </si>
-  <si>
     <t>PMM PWR Supply Main PG (1-Error)</t>
   </si>
   <si>
@@ -1552,6 +1546,12 @@
   </si>
   <si>
     <t>PAM PWR TM SP Ch3 PG (1-Error)</t>
+  </si>
+  <si>
+    <t>SP4 X+  has Error (1=Error)</t>
+  </si>
+  <si>
+    <t>SP2 X-  has Error (1=Error)</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2195,30 +2195,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2521,10 +2522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:U132"/>
+  <dimension ref="B5:U135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L136" sqref="L136"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2560,24 +2561,24 @@
       <c r="E6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="64"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="59"/>
     </row>
     <row r="7" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="47"/>
@@ -2739,7 +2740,7 @@
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
-      <c r="M10" s="61"/>
+      <c r="M10" s="60"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -3034,7 +3035,7 @@
     </row>
     <row r="20" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C20" s="25">
         <v>8</v>
@@ -3046,22 +3047,22 @@
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3202,13 +3203,13 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>41</v>
@@ -3217,13 +3218,13 @@
         <v>40</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3237,27 +3238,26 @@
         <v>129</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="31" t="s">
-        <v>46</v>
-      </c>
       <c r="G27" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>48</v>
+      <c r="H27" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>49</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="31"/>
+        <v>511</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>510</v>
+      </c>
       <c r="M27" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3271,16 +3271,16 @@
         <v>130</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="59"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="64"/>
     </row>
     <row r="30" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3347,7 +3347,7 @@
     </row>
     <row r="33" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="25">
         <v>8</v>
@@ -3357,28 +3357,28 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K33" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3393,28 +3393,28 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K34" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L34" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3429,28 +3429,28 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3464,28 +3464,28 @@
         <v>204</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="60"/>
+      <c r="F36" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="63"/>
       <c r="J36" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="25">
         <v>8</v>
@@ -3494,20 +3494,20 @@
         <v>205</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="59"/>
+      <c r="F37" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="64"/>
     </row>
     <row r="38" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="25">
         <v>8</v>
@@ -3517,33 +3517,33 @@
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L38" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C39" s="25">
         <v>8</v>
@@ -3553,33 +3553,33 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L39" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="25">
         <v>8</v>
@@ -3589,33 +3589,33 @@
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C41" s="25">
         <v>8</v>
@@ -3628,24 +3628,24 @@
       <c r="G41" s="31"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L41" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="25">
         <v>8</v>
@@ -3654,20 +3654,20 @@
         <v>210</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="59"/>
+      <c r="F42" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="64"/>
     </row>
     <row r="43" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C43" s="25">
         <v>8</v>
@@ -3678,30 +3678,30 @@
       <c r="E43" s="7"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L43" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" s="25">
         <v>8</v>
@@ -3712,30 +3712,30 @@
       <c r="E44" s="7"/>
       <c r="F44" s="31"/>
       <c r="G44" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H44" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J44" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K44" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L44" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45" s="25">
         <v>8</v>
@@ -3746,30 +3746,30 @@
       <c r="E45" s="7"/>
       <c r="F45" s="31"/>
       <c r="G45" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J45" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K45" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C46" s="25">
         <v>8</v>
@@ -3780,30 +3780,30 @@
       <c r="E46" s="7"/>
       <c r="F46" s="31"/>
       <c r="G46" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H46" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J46" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C47" s="25">
         <v>8</v>
@@ -3814,30 +3814,30 @@
       <c r="E47" s="7"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I47" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J47" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K47" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L47" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C48" s="25">
         <v>8</v>
@@ -3848,30 +3848,30 @@
       <c r="E48" s="7"/>
       <c r="F48" s="31"/>
       <c r="G48" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H48" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I48" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J48" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K48" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C49" s="25">
         <v>8</v>
@@ -3882,30 +3882,30 @@
       <c r="E49" s="7"/>
       <c r="F49" s="31"/>
       <c r="G49" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J49" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K49" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L49" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C50" s="25">
         <v>8</v>
@@ -3914,20 +3914,20 @@
         <v>218</v>
       </c>
       <c r="E50" s="7"/>
-      <c r="F50" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="59"/>
+      <c r="F50" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="64"/>
     </row>
     <row r="51" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C51" s="25">
         <v>8</v>
@@ -3936,20 +3936,20 @@
         <v>219</v>
       </c>
       <c r="E51" s="7"/>
-      <c r="F51" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="59"/>
+      <c r="F51" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="64"/>
     </row>
     <row r="52" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C52" s="25">
         <v>8</v>
@@ -3959,33 +3959,33 @@
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L52" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C53" s="25">
         <v>8</v>
@@ -3994,20 +3994,20 @@
         <v>221</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="F53" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="59"/>
+      <c r="F53" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="64"/>
     </row>
     <row r="54" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C54" s="25">
         <v>8</v>
@@ -4016,20 +4016,20 @@
         <v>222</v>
       </c>
       <c r="E54" s="7"/>
-      <c r="F54" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="59"/>
+      <c r="F54" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="64"/>
     </row>
     <row r="55" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C55" s="25">
         <v>8</v>
@@ -4039,33 +4039,33 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C56" s="25">
         <v>8</v>
@@ -4074,20 +4074,20 @@
         <v>224</v>
       </c>
       <c r="E56" s="7"/>
-      <c r="F56" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="59"/>
+      <c r="F56" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="64"/>
     </row>
     <row r="57" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C57" s="25">
         <v>8</v>
@@ -4096,20 +4096,20 @@
         <v>225</v>
       </c>
       <c r="E57" s="7"/>
-      <c r="F57" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
-      <c r="M57" s="59"/>
+      <c r="F57" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="64"/>
     </row>
     <row r="58" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C58" s="25">
         <v>8</v>
@@ -4119,33 +4119,33 @@
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L58" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C59" s="25">
         <v>8</v>
@@ -4155,33 +4155,33 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L59" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C60" s="25">
         <v>8</v>
@@ -4191,33 +4191,33 @@
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C61" s="25">
         <v>8</v>
@@ -4227,33 +4227,33 @@
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="H61" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="I61" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="J61" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="K61" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J61" s="13" t="s">
+      <c r="L61" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="K61" s="13" t="s">
+      <c r="M61" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="L61" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="M61" s="13" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C62" s="25">
         <v>8</v>
@@ -4262,20 +4262,20 @@
         <v>230</v>
       </c>
       <c r="E62" s="7"/>
-      <c r="F62" s="57" t="s">
-        <v>248</v>
-      </c>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="59"/>
+      <c r="F62" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="64"/>
     </row>
     <row r="63" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C63" s="25">
         <v>8</v>
@@ -4284,20 +4284,20 @@
         <v>231</v>
       </c>
       <c r="E63" s="7"/>
-      <c r="F63" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
-      <c r="M63" s="59"/>
+      <c r="F63" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="64"/>
     </row>
     <row r="64" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C64" s="25">
         <v>8</v>
@@ -4307,33 +4307,33 @@
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="H64" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="I64" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="J64" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="K64" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="J64" s="13" t="s">
+      <c r="L64" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="K64" s="13" t="s">
+      <c r="M64" s="13" t="s">
         <v>255</v>
-      </c>
-      <c r="L64" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="M64" s="13" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="65" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C65" s="25">
         <v>8</v>
@@ -4342,20 +4342,20 @@
         <v>233</v>
       </c>
       <c r="E65" s="7"/>
-      <c r="F65" s="57" t="s">
-        <v>258</v>
-      </c>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="59"/>
+      <c r="F65" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="64"/>
     </row>
     <row r="66" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C66" s="25">
         <v>8</v>
@@ -4364,20 +4364,20 @@
         <v>234</v>
       </c>
       <c r="E66" s="7"/>
-      <c r="F66" s="57" t="s">
-        <v>259</v>
-      </c>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="58"/>
-      <c r="M66" s="59"/>
+      <c r="F66" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="64"/>
     </row>
     <row r="67" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C67" s="25">
         <v>8</v>
@@ -4387,33 +4387,33 @@
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="H67" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="I67" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="J67" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="I67" s="13" t="s">
+      <c r="K67" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="J67" s="13" t="s">
+      <c r="L67" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="K67" s="13" t="s">
+      <c r="M67" s="13" t="s">
         <v>265</v>
-      </c>
-      <c r="L67" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="M67" s="13" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="68" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C68" s="25">
         <v>8</v>
@@ -4423,33 +4423,33 @@
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="H68" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="I68" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="H68" s="13" t="s">
+      <c r="J68" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="I68" s="13" t="s">
+      <c r="K68" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="J68" s="13" t="s">
+      <c r="L68" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="K68" s="13" t="s">
+      <c r="M68" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="L68" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="M68" s="13" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="69" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C69" s="25">
         <v>8</v>
@@ -4459,33 +4459,33 @@
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="H69" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="I69" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="J69" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="I69" s="13" t="s">
+      <c r="K69" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="J69" s="13" t="s">
+      <c r="L69" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="K69" s="13" t="s">
+      <c r="M69" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="L69" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="M69" s="13" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="70" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C70" s="25">
         <v>8</v>
@@ -4495,33 +4495,33 @@
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H70" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="I70" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="H70" s="13" t="s">
+      <c r="J70" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="I70" s="13" t="s">
+      <c r="K70" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="J70" s="13" t="s">
+      <c r="L70" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="K70" s="13" t="s">
+      <c r="M70" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="L70" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="M70" s="13" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="71" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C71" s="25">
         <v>8</v>
@@ -4530,20 +4530,20 @@
         <v>239</v>
       </c>
       <c r="E71" s="7"/>
-      <c r="F71" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="59"/>
+      <c r="F71" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="64"/>
     </row>
     <row r="72" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C72" s="25">
         <v>8</v>
@@ -4552,20 +4552,20 @@
         <v>240</v>
       </c>
       <c r="E72" s="7"/>
-      <c r="F72" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="58"/>
-      <c r="M72" s="59"/>
+      <c r="F72" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="64"/>
     </row>
     <row r="73" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C73" s="25">
         <v>8</v>
@@ -4575,33 +4575,33 @@
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="H73" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="I73" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="H73" s="13" t="s">
+      <c r="J73" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="I73" s="13" t="s">
+      <c r="K73" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="L73" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="K73" s="13" t="s">
+      <c r="M73" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="L73" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="M73" s="13" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="74" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C74" s="25">
         <v>8</v>
@@ -4610,20 +4610,20 @@
         <v>242</v>
       </c>
       <c r="E74" s="7"/>
-      <c r="F74" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="58"/>
-      <c r="L74" s="58"/>
-      <c r="M74" s="59"/>
+      <c r="F74" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="64"/>
     </row>
     <row r="75" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C75" s="25">
         <v>8</v>
@@ -4632,20 +4632,20 @@
         <v>243</v>
       </c>
       <c r="E75" s="7"/>
-      <c r="F75" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="59"/>
+      <c r="F75" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="64"/>
     </row>
     <row r="76" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C76" s="25">
         <v>8</v>
@@ -4655,33 +4655,33 @@
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H76" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="G76" s="13" t="s">
+      <c r="I76" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="H76" s="13" t="s">
+      <c r="J76" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="K76" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="L76" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="K76" s="13" t="s">
+      <c r="M76" s="13" t="s">
         <v>310</v>
-      </c>
-      <c r="L76" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="M76" s="13" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="77" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C77" s="25">
         <v>8</v>
@@ -4691,33 +4691,33 @@
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="H77" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="I77" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="J77" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="I77" s="13" t="s">
+      <c r="K77" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="J77" s="13" t="s">
+      <c r="L77" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="K77" s="13" t="s">
+      <c r="M77" s="13" t="s">
         <v>318</v>
-      </c>
-      <c r="L77" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="M77" s="13" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="78" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C78" s="25">
         <v>8</v>
@@ -4727,33 +4727,33 @@
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="H78" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="I78" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="H78" s="13" t="s">
+      <c r="J78" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="I78" s="13" t="s">
+      <c r="K78" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="J78" s="13" t="s">
+      <c r="L78" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="K78" s="13" t="s">
+      <c r="M78" s="13" t="s">
         <v>318</v>
-      </c>
-      <c r="L78" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="M78" s="13" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C79" s="25">
         <v>8</v>
@@ -4763,33 +4763,33 @@
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L79" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C80" s="25">
         <v>8</v>
@@ -4802,24 +4802,24 @@
       <c r="G80" s="39"/>
       <c r="H80" s="39"/>
       <c r="I80" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L80" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M80" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C81" s="25">
         <v>8</v>
@@ -4829,33 +4829,33 @@
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="39" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H81" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I81" s="39" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J81" s="39" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L81" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M81" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C82" s="25">
         <v>8</v>
@@ -4869,24 +4869,24 @@
       <c r="H82" s="39"/>
       <c r="I82" s="40"/>
       <c r="J82" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="R82" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C83" s="36">
         <v>8</v>
@@ -4896,33 +4896,33 @@
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C84" s="25">
         <v>8</v>
@@ -4932,33 +4932,33 @@
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B85" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C85" s="25">
         <v>8</v>
@@ -4974,15 +4974,15 @@
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
       <c r="L85" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C86" s="25">
         <v>8</v>
@@ -4991,20 +4991,20 @@
         <v>254</v>
       </c>
       <c r="E86" s="7"/>
-      <c r="F86" s="57" t="s">
-        <v>414</v>
-      </c>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="58"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="59"/>
+      <c r="F86" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="G86" s="62"/>
+      <c r="H86" s="62"/>
+      <c r="I86" s="62"/>
+      <c r="J86" s="62"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="62"/>
+      <c r="M86" s="64"/>
     </row>
     <row r="87" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B87" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C87" s="25">
         <v>8</v>
@@ -5016,27 +5016,27 @@
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
       <c r="H87" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K87" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="L87" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="M87" s="13" t="s">
         <v>372</v>
-      </c>
-      <c r="L87" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="M87" s="13" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="88" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C88" s="25">
         <v>8</v>
@@ -5046,29 +5046,29 @@
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K88" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L88" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M88" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C89" s="25">
         <v>8</v>
@@ -5080,27 +5080,27 @@
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
       <c r="H89" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K89" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L89" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M89" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C90" s="25">
         <v>8</v>
@@ -5110,29 +5110,29 @@
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="L90" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="K90" s="13" t="s">
+      <c r="M90" s="13" t="s">
         <v>396</v>
-      </c>
-      <c r="L90" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="M90" s="13" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="91" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C91" s="25">
         <v>8</v>
@@ -5144,27 +5144,27 @@
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L91" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C92" s="25">
         <v>8</v>
@@ -5174,24 +5174,24 @@
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L92" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="94" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="97" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C97" s="25">
         <v>8</v>
@@ -5271,27 +5271,27 @@
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L97" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C98" s="25">
         <v>8</v>
@@ -5301,29 +5301,29 @@
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K98" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L98" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M98" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C99" s="25">
         <v>8</v>
@@ -5335,27 +5335,27 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K99" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L99" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M99" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C100" s="25">
         <v>8</v>
@@ -5365,29 +5365,29 @@
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L100" s="13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M100" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="101" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C101" s="25">
         <v>8</v>
@@ -5399,27 +5399,27 @@
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
       <c r="H101" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K101" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L101" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M101" s="13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B102" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C102" s="25">
         <v>8</v>
@@ -5429,29 +5429,29 @@
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K102" s="13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L102" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="103" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C103" s="25">
         <v>8</v>
@@ -5460,20 +5460,20 @@
         <v>336</v>
       </c>
       <c r="E103" s="7"/>
-      <c r="F103" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="59"/>
+      <c r="F103" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G103" s="62"/>
+      <c r="H103" s="62"/>
+      <c r="I103" s="62"/>
+      <c r="J103" s="62"/>
+      <c r="K103" s="62"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="64"/>
     </row>
     <row r="104" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C104" s="25">
         <v>8</v>
@@ -5482,20 +5482,20 @@
         <v>337</v>
       </c>
       <c r="E104" s="7"/>
-      <c r="F104" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="G104" s="58"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
-      <c r="K104" s="58"/>
-      <c r="L104" s="58"/>
-      <c r="M104" s="59"/>
+      <c r="F104" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G104" s="62"/>
+      <c r="H104" s="62"/>
+      <c r="I104" s="62"/>
+      <c r="J104" s="62"/>
+      <c r="K104" s="62"/>
+      <c r="L104" s="62"/>
+      <c r="M104" s="64"/>
     </row>
     <row r="105" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C105" s="25">
         <v>8</v>
@@ -5504,20 +5504,20 @@
         <v>338</v>
       </c>
       <c r="E105" s="7"/>
-      <c r="F105" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="G105" s="58"/>
-      <c r="H105" s="58"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="58"/>
-      <c r="K105" s="58"/>
-      <c r="L105" s="58"/>
-      <c r="M105" s="59"/>
+      <c r="F105" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="62"/>
+      <c r="J105" s="62"/>
+      <c r="K105" s="62"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="64"/>
     </row>
     <row r="106" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B106" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C106" s="25">
         <v>8</v>
@@ -5526,16 +5526,16 @@
         <v>339</v>
       </c>
       <c r="E106" s="7"/>
-      <c r="F106" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="G106" s="58"/>
-      <c r="H106" s="58"/>
-      <c r="I106" s="58"/>
-      <c r="J106" s="58"/>
-      <c r="K106" s="58"/>
-      <c r="L106" s="58"/>
-      <c r="M106" s="59"/>
+      <c r="F106" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G106" s="62"/>
+      <c r="H106" s="62"/>
+      <c r="I106" s="62"/>
+      <c r="J106" s="62"/>
+      <c r="K106" s="62"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="64"/>
     </row>
     <row r="111" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5602,7 +5602,7 @@
     </row>
     <row r="114" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C114" s="25">
         <v>8</v>
@@ -5612,33 +5612,33 @@
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J114" s="13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K114" s="13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L114" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M114" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="115" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B115" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C115" s="25">
         <v>8</v>
@@ -5648,33 +5648,33 @@
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H115" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="G115" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>477</v>
-      </c>
       <c r="I115" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J115" s="13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K115" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L115" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M115" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B116" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C116" s="25">
         <v>8</v>
@@ -5684,33 +5684,33 @@
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J116" s="13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K116" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L116" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M116" s="13" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B117" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C117" s="25">
         <v>8</v>
@@ -5720,33 +5720,33 @@
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J117" s="13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L117" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M117" s="13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="118" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C118" s="25">
         <v>8</v>
@@ -5755,69 +5755,151 @@
         <v>62</v>
       </c>
       <c r="E118" s="7"/>
+      <c r="F118" s="13"/>
       <c r="G118" s="13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J118" s="13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L118" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M118" s="13" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="127" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="128" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-    </row>
-    <row r="129" spans="6:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-    </row>
-    <row r="130" spans="6:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
-    </row>
-    <row r="131" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="132" spans="6:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
-      <c r="K132" s="13"/>
-      <c r="L132" s="13"/>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="65"/>
+      <c r="H127" s="65"/>
+      <c r="I127" s="65"/>
+      <c r="J127" s="65"/>
+      <c r="K127" s="65"/>
+      <c r="L127" s="65"/>
+      <c r="M127" s="65"/>
+    </row>
+    <row r="128" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E128" s="65"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="65"/>
+      <c r="K128" s="65"/>
+      <c r="L128" s="65"/>
+      <c r="M128" s="65"/>
+    </row>
+    <row r="129" spans="5:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E129" s="65"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="65"/>
+      <c r="K129" s="65"/>
+      <c r="L129" s="65"/>
+      <c r="M129" s="65"/>
+    </row>
+    <row r="130" spans="5:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E130" s="65"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="65"/>
+      <c r="K130" s="65"/>
+      <c r="L130" s="65"/>
+      <c r="M130" s="65"/>
+    </row>
+    <row r="131" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="65"/>
+      <c r="K131" s="65"/>
+      <c r="L131" s="65"/>
+      <c r="M131" s="65"/>
+    </row>
+    <row r="132" spans="5:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E132" s="65"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="32"/>
+      <c r="J132" s="32"/>
+      <c r="K132" s="32"/>
+      <c r="L132" s="32"/>
+      <c r="M132" s="65"/>
+    </row>
+    <row r="133" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E133" s="65"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="65"/>
+    </row>
+    <row r="134" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E134" s="65"/>
+      <c r="F134" s="65"/>
+      <c r="G134" s="65"/>
+    </row>
+    <row r="135" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E135" s="65"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:M112"/>
-    <mergeCell ref="F6:U6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F103:M103"/>
+    <mergeCell ref="F104:M104"/>
+    <mergeCell ref="F105:M105"/>
+    <mergeCell ref="F106:M106"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:M95"/>
+    <mergeCell ref="F71:M71"/>
+    <mergeCell ref="F72:M72"/>
+    <mergeCell ref="F74:M74"/>
+    <mergeCell ref="F75:M75"/>
+    <mergeCell ref="F86:M86"/>
+    <mergeCell ref="F57:M57"/>
+    <mergeCell ref="F62:M62"/>
+    <mergeCell ref="F63:M63"/>
+    <mergeCell ref="F65:M65"/>
+    <mergeCell ref="F66:M66"/>
+    <mergeCell ref="F50:M50"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="F54:M54"/>
+    <mergeCell ref="F56:M56"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:M37"/>
+    <mergeCell ref="F42:M42"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:M31"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
@@ -5827,45 +5909,21 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:M37"/>
-    <mergeCell ref="F42:M42"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F50:M50"/>
-    <mergeCell ref="F51:M51"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="F54:M54"/>
-    <mergeCell ref="F56:M56"/>
-    <mergeCell ref="F57:M57"/>
-    <mergeCell ref="F62:M62"/>
-    <mergeCell ref="F63:M63"/>
-    <mergeCell ref="F65:M65"/>
-    <mergeCell ref="F66:M66"/>
-    <mergeCell ref="F71:M71"/>
-    <mergeCell ref="F72:M72"/>
-    <mergeCell ref="F74:M74"/>
-    <mergeCell ref="F75:M75"/>
-    <mergeCell ref="F86:M86"/>
-    <mergeCell ref="F103:M103"/>
-    <mergeCell ref="F104:M104"/>
-    <mergeCell ref="F105:M105"/>
-    <mergeCell ref="F106:M106"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:M95"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F6:U6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:M112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
